--- a/results/MVSE/aminer/MVSE_aminer<l01>AllRes_85.95.xlsx
+++ b/results/MVSE/aminer/MVSE_aminer<l01>AllRes_85.95.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
         <v>128</v>
       </c>
       <c r="G3" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
         <v>50</v>
@@ -629,20 +629,20 @@
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>0.66</v>
+        <v>0.51</v>
       </c>
       <c r="M3" t="n">
-        <v>85.48999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>0.31</v>
+        <v>0.41</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-23_45_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-20_00_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -651,7 +651,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>128</v>
       </c>
       <c r="G4" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="H4" t="n">
         <v>50</v>
@@ -696,20 +696,20 @@
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="M4" t="n">
-        <v>85.34</v>
+        <v>85.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O4" t="n">
-        <v>0.41</v>
+        <v>0.18</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-23_12_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-19_59_39', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -718,7 +718,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>128</v>
       </c>
       <c r="G5" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="H5" t="n">
         <v>50</v>
@@ -763,20 +763,20 @@
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>0.57</v>
+        <v>0.66</v>
       </c>
       <c r="M5" t="n">
-        <v>85.29000000000001</v>
+        <v>85.48999999999999</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="O5" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-23_13_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-23_45_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -785,7 +785,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>128</v>
       </c>
       <c r="G6" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
         <v>50</v>
@@ -830,20 +830,20 @@
         <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>0.57</v>
+        <v>0.46</v>
       </c>
       <c r="M6" t="n">
-        <v>84.95999999999999</v>
+        <v>85.47</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="O6" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-00_18_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-20_30_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -852,7 +852,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -871,14 +871,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>128</v>
       </c>
       <c r="G7" t="n">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="H7" t="n">
         <v>50</v>
@@ -897,20 +897,20 @@
         <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="M7" t="n">
-        <v>84.79000000000001</v>
+        <v>85.43000000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O7" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-13_11_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-20_30_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -919,7 +919,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         <v>128</v>
       </c>
       <c r="G8" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="H8" t="n">
         <v>50</v>
@@ -964,29 +964,29 @@
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>0.61</v>
+        <v>0.55</v>
       </c>
       <c r="M8" t="n">
-        <v>84.09</v>
+        <v>85.34</v>
       </c>
       <c r="N8" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="O8" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-00_49_56', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-23_12_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1005,14 +1005,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>128</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H9" t="n">
         <v>50</v>
@@ -1031,29 +1031,29 @@
         <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>0.48</v>
+        <v>0.57</v>
       </c>
       <c r="M9" t="n">
-        <v>83.58</v>
+        <v>85.29000000000001</v>
       </c>
       <c r="N9" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="O9" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-14_07_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-23_13_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1079,7 +1079,7 @@
         <v>128</v>
       </c>
       <c r="G10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H10" t="n">
         <v>50</v>
@@ -1098,29 +1098,29 @@
         <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="M10" t="n">
-        <v>83.5</v>
+        <v>84.95999999999999</v>
       </c>
       <c r="N10" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="O10" t="n">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-13_43_56', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-00_18_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1139,14 +1139,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>128</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H11" t="n">
         <v>50</v>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>WL_0.25_0.25_0.5</t>
+          <t>WL_0_0_1</t>
         </is>
       </c>
       <c r="K11" t="n">
@@ -1168,17 +1168,17 @@
         <v>0.55</v>
       </c>
       <c r="M11" t="n">
-        <v>83.22</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="N11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="O11" t="n">
-        <v>0.41</v>
+        <v>0.23</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-22_41_06', 'cl_mode': 'WL_0.25_0.25_0.5', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-13_11_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1187,7 +1187,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1206,14 +1206,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>128</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H12" t="n">
         <v>50</v>
@@ -1225,36 +1225,36 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>WL_0.33_0.33_0.33</t>
+          <t>WL_0_0_1</t>
         </is>
       </c>
       <c r="K12" t="n">
         <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>0.55</v>
+        <v>0.62</v>
       </c>
       <c r="M12" t="n">
-        <v>83.22</v>
+        <v>84.27</v>
       </c>
       <c r="N12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="O12" t="n">
-        <v>0.41</v>
+        <v>0.26</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-00_25_25', 'cl_mode': 'WL_0.33_0.33_0.33', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-21_30_53', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1273,14 +1273,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>128</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H13" t="n">
         <v>50</v>
@@ -1292,36 +1292,36 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>WL_0.2_0.2_0.6</t>
+          <t>WL_0_0_1</t>
         </is>
       </c>
       <c r="K13" t="n">
         <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>0.55</v>
+        <v>0.61</v>
       </c>
       <c r="M13" t="n">
-        <v>83.22</v>
+        <v>84.09</v>
       </c>
       <c r="N13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="O13" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-20_19_48', 'cl_mode': 'WL_0.2_0.2_0.6', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-00_49_56', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1340,14 +1340,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>128</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="H14" t="n">
         <v>50</v>
@@ -1359,36 +1359,36 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>WL_0.1_0.1_0.8</t>
+          <t>WL_0_0_1</t>
         </is>
       </c>
       <c r="K14" t="n">
         <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>0.55</v>
+        <v>0.64</v>
       </c>
       <c r="M14" t="n">
-        <v>83.22</v>
+        <v>84.06</v>
       </c>
       <c r="N14" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="O14" t="n">
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-18_19_01', 'cl_mode': 'WL_0.1_0.1_0.8', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-21_01_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1426,36 +1426,36 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>WL_0.05_0.05_0.9</t>
+          <t>WL_0_0_1</t>
         </is>
       </c>
       <c r="K15" t="n">
         <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>0.55</v>
+        <v>0.48</v>
       </c>
       <c r="M15" t="n">
-        <v>83.22</v>
+        <v>83.58</v>
       </c>
       <c r="N15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="O15" t="n">
-        <v>0.41</v>
+        <v>0.18</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-16_56_18', 'cl_mode': 'WL_0.05_0.05_0.9', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-14_07_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1474,14 +1474,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>128</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H16" t="n">
         <v>50</v>
@@ -1493,36 +1493,36 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>WL_0.025_0.025_0.95</t>
+          <t>WL_0_0_1</t>
         </is>
       </c>
       <c r="K16" t="n">
         <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>0.55</v>
+        <v>0.62</v>
       </c>
       <c r="M16" t="n">
-        <v>83.22</v>
+        <v>83.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="O16" t="n">
         <v>0.41</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-15_44_22', 'cl_mode': 'WL_0.025_0.025_0.95', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-13_43_56', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>WL_0_0_1</t>
+          <t>WL_0.33_0.33_0.33</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-14_06_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-00_25_25', 'cl_mode': 'WL_0.33_0.33_0.33', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1589,7 +1589,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1608,14 +1608,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>128</v>
       </c>
       <c r="G18" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>50</v>
@@ -1627,36 +1627,36 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>WL_0_0_1</t>
+          <t>WL_0.25_0.25_0.5</t>
         </is>
       </c>
       <c r="K18" t="n">
         <v>2</v>
       </c>
       <c r="L18" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="M18" t="n">
-        <v>82.98</v>
+        <v>83.22</v>
       </c>
       <c r="N18" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O18" t="n">
-        <v>0.17</v>
+        <v>0.41</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-14_15_59', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-22_41_06', 'cl_mode': 'WL_0.25_0.25_0.5', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1694,30 +1694,432 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
+          <t>WL_0.2_0.2_0.6</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="M19" t="n">
+        <v>83.22</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-20_19_48', 'cl_mode': 'WL_0.2_0.2_0.6', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>aminer</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>128</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>50</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>WL_0.1_0.1_0.8</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="M20" t="n">
+        <v>83.22</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-18_19_01', 'cl_mode': 'WL_0.1_0.1_0.8', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>aminer</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>128</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>50</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>WL_0.05_0.05_0.9</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="M21" t="n">
+        <v>83.22</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-16_56_18', 'cl_mode': 'WL_0.05_0.05_0.9', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>aminer</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>128</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>50</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>WL_0.025_0.025_0.95</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="M22" t="n">
+        <v>83.22</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-15_44_22', 'cl_mode': 'WL_0.025_0.025_0.95', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>aminer</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>50</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K19" t="n">
-        <v>2</v>
-      </c>
-      <c r="L19" t="n">
+      <c r="K23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="M23" t="n">
+        <v>83.22</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-14_06_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>aminer</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>128</v>
+      </c>
+      <c r="G24" t="n">
+        <v>100</v>
+      </c>
+      <c r="H24" t="n">
+        <v>50</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M24" t="n">
+        <v>82.98</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-14_15_59', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>aminer</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>128</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>50</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>2</v>
+      </c>
+      <c r="L25" t="n">
         <v>0.77</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M25" t="n">
         <v>82.48</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N25" t="n">
         <v>0.05</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O25" t="n">
         <v>0.72</v>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-15_45_30', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q25" t="n">
         <v>1</v>
       </c>
     </row>
